--- a/limpo/despesas_limpo.xlsx
+++ b/limpo/despesas_limpo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,16 @@
           <t>fornecedor</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>trimestre</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mensal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,6 +504,12 @@
           <t>teixeira</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -520,6 +536,12 @@
           <t>nunes</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -545,6 +567,12 @@
         <is>
           <t>moura_s/a</t>
         </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -556,7 +584,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,6 +599,12 @@
         <is>
           <t>barros</t>
         </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -598,6 +632,12 @@
           <t>mendes_ei</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -624,6 +664,12 @@
           <t>da_rocha_vargas_ei</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -634,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -649,6 +695,12 @@
         <is>
           <t>sá_ei</t>
         </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -676,6 +728,12 @@
           <t>jesus</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -702,6 +760,12 @@
           <t>rodrigues</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -728,6 +792,12 @@
           <t>cirino</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -754,6 +824,12 @@
           <t>rodrigues</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -780,6 +856,12 @@
           <t>dias</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -806,6 +888,12 @@
           <t>sá</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -832,6 +920,12 @@
           <t>cassiano</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -858,6 +952,12 @@
           <t>andrade_vieira_s.a.</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -878,6 +978,12 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +1006,12 @@
         <v>585.8200000000001</v>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -910,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -925,6 +1037,12 @@
         <is>
           <t>viana_me</t>
         </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -952,6 +1070,12 @@
           <t>cardoso</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1102,12 @@
           <t>novaes</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1134,12 @@
           <t>machado_carvalho_s/a</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1166,12 @@
           <t>andrade_e_filhos</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1198,12 @@
           <t>borges</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1230,12 @@
           <t>rodrigues</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1092,7 +1246,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1107,6 +1261,12 @@
         <is>
           <t>vasconcelos</t>
         </is>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1118,7 +1278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1133,6 +1293,12 @@
         <is>
           <t>pimenta</t>
         </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1158,6 +1324,12 @@
           <t>camargo_ltda.</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1184,6 +1356,12 @@
           <t>dias</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1210,6 +1388,12 @@
           <t>nogueira_silva_me</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1236,6 +1420,12 @@
           <t>caldeira</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1262,6 +1452,12 @@
           <t>vieira_e_filhos</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1272,7 +1468,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1287,6 +1483,12 @@
         <is>
           <t>da_mata</t>
         </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1314,6 +1516,12 @@
           <t>ferreira</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1340,6 +1548,12 @@
           <t>da_rocha_pimenta_ltda.</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1366,6 +1580,12 @@
           <t>da_rosa</t>
         </is>
       </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1392,6 +1612,12 @@
           <t>freitas_ei</t>
         </is>
       </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1418,6 +1644,12 @@
           <t>pastor_s/a</t>
         </is>
       </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1442,6 +1674,12 @@
           <t>nogueira</t>
         </is>
       </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1468,6 +1706,12 @@
           <t>almeida_cassiano_ltda.</t>
         </is>
       </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1494,6 +1738,12 @@
           <t>cardoso</t>
         </is>
       </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1520,6 +1770,12 @@
           <t>vieira_melo_ltda.</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1546,6 +1802,12 @@
           <t>ramos</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1556,7 +1818,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1571,6 +1833,12 @@
         <is>
           <t>albuquerque_s.a.</t>
         </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1598,6 +1866,12 @@
           <t>montenegro</t>
         </is>
       </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1624,6 +1898,12 @@
           <t>nunes</t>
         </is>
       </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1646,6 +1926,12 @@
         <v>18025.9</v>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1672,6 +1958,12 @@
           <t>da_cruz</t>
         </is>
       </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1698,6 +1990,12 @@
           <t>macedo_cardoso_me</t>
         </is>
       </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1720,6 +2018,12 @@
         <v>7099.12</v>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1746,6 +2050,12 @@
           <t>jesus_me</t>
         </is>
       </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1772,6 +2082,12 @@
           <t>freitas</t>
         </is>
       </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1794,6 +2110,12 @@
         <v>2001.86</v>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1820,6 +2142,12 @@
           <t>albuquerque</t>
         </is>
       </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1846,6 +2174,12 @@
           <t>gonçalves</t>
         </is>
       </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1872,6 +2206,12 @@
           <t>brito</t>
         </is>
       </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1882,7 +2222,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1894,6 +2234,12 @@
         <v>14002.1</v>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1904,7 +2250,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1919,6 +2265,12 @@
         <is>
           <t>melo</t>
         </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1930,7 +2282,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1945,6 +2297,12 @@
         <is>
           <t>gomes_me</t>
         </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1972,6 +2330,12 @@
           <t>fonseca_almeida_me</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1998,6 +2362,12 @@
           <t>fogaça</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2008,7 +2378,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2023,6 +2393,12 @@
         <is>
           <t>andrade</t>
         </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2050,6 +2426,12 @@
           <t>mendes_ribeiro_s/a</t>
         </is>
       </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2076,6 +2458,12 @@
           <t>montenegro</t>
         </is>
       </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2102,6 +2490,12 @@
           <t>costa</t>
         </is>
       </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2112,7 +2506,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2127,6 +2521,12 @@
         <is>
           <t>oliveira</t>
         </is>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -2138,7 +2538,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2153,6 +2553,12 @@
         <is>
           <t>carvalho</t>
         </is>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -2180,6 +2586,12 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2190,7 +2602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2205,6 +2617,12 @@
         <is>
           <t>pastor_s/a</t>
         </is>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -2232,6 +2650,12 @@
           <t>andrade</t>
         </is>
       </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2242,7 +2666,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2257,6 +2681,12 @@
         <is>
           <t>leão_montenegro_ei</t>
         </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -2268,7 +2698,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2283,6 +2713,12 @@
         <is>
           <t>rodrigues_rios_e_filhos</t>
         </is>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -2294,7 +2730,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2306,6 +2742,12 @@
         <v>382.03</v>
       </c>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2332,6 +2774,12 @@
           <t>cavalcante_s/a</t>
         </is>
       </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2356,6 +2804,12 @@
           <t>rocha_pastor_ltda.</t>
         </is>
       </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2378,6 +2832,12 @@
         <v>12467.78</v>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2388,7 +2848,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2403,6 +2863,12 @@
         <is>
           <t>sales_da_luz_e_filhos</t>
         </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -2430,6 +2896,12 @@
           <t>lopes_rezende_ei</t>
         </is>
       </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2456,6 +2928,12 @@
           <t>andrade_cavalcanti_e_filhos</t>
         </is>
       </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2466,7 +2944,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2481,6 +2959,12 @@
         <is>
           <t>da_conceição</t>
         </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -2508,6 +2992,12 @@
           <t>albuquerque</t>
         </is>
       </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2530,6 +3020,12 @@
         <v>19009.87</v>
       </c>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2556,6 +3052,12 @@
           <t>da_rocha_me</t>
         </is>
       </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2582,6 +3084,12 @@
           <t>martins_porto_s.a.</t>
         </is>
       </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2604,6 +3112,12 @@
         <v>7786.15</v>
       </c>
       <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2630,6 +3144,12 @@
           <t>rios_pereira_ltda.</t>
         </is>
       </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2656,6 +3176,12 @@
           <t>viana_martins_me</t>
         </is>
       </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2682,6 +3208,12 @@
           <t>correia</t>
         </is>
       </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2692,7 +3224,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2707,6 +3239,12 @@
         <is>
           <t>jesus_viana_s/a</t>
         </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -2734,6 +3272,12 @@
           <t>nogueira</t>
         </is>
       </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2760,6 +3304,12 @@
           <t>nogueira_rodrigues_s/a</t>
         </is>
       </c>
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2780,6 +3330,12 @@
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2802,6 +3358,12 @@
         <v>11478.93</v>
       </c>
       <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2828,6 +3390,12 @@
           <t>camargo_me</t>
         </is>
       </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2854,6 +3422,12 @@
           <t>novais</t>
         </is>
       </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2880,6 +3454,12 @@
           <t>novaes_ltda.</t>
         </is>
       </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2890,7 +3470,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2905,6 +3485,12 @@
         <is>
           <t>nunes_s.a.</t>
         </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -2932,6 +3518,12 @@
           <t>oliveira_ei</t>
         </is>
       </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2942,7 +3534,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2957,6 +3549,12 @@
         <is>
           <t>alves_me</t>
         </is>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -2984,6 +3582,12 @@
           <t>da_rocha_guerra_s/a</t>
         </is>
       </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2994,7 +3598,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3009,6 +3613,12 @@
         <is>
           <t>viana</t>
         </is>
+      </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -3036,6 +3646,12 @@
           <t>borges_ei</t>
         </is>
       </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3062,6 +3678,12 @@
           <t>siqueira_e_filhos</t>
         </is>
       </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3088,6 +3710,12 @@
           <t>martins</t>
         </is>
       </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3114,6 +3742,12 @@
           <t>cardoso</t>
         </is>
       </c>
+      <c r="G105" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3140,6 +3774,12 @@
           <t>fogaça</t>
         </is>
       </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3166,6 +3806,12 @@
           <t>machado_s.a.</t>
         </is>
       </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3176,7 +3822,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3191,6 +3837,12 @@
         <is>
           <t>fogaça_ei</t>
         </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -3218,6 +3870,12 @@
           <t>peixoto</t>
         </is>
       </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
+      <c r="H109" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3244,6 +3902,12 @@
           <t>da_rosa</t>
         </is>
       </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3268,6 +3932,12 @@
           <t>albuquerque_rios_me</t>
         </is>
       </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3294,6 +3964,12 @@
           <t>almeida</t>
         </is>
       </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3320,6 +3996,12 @@
           <t>silveira</t>
         </is>
       </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3346,6 +4028,12 @@
           <t>vargas</t>
         </is>
       </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3372,6 +4060,12 @@
           <t>rocha</t>
         </is>
       </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3398,6 +4092,12 @@
           <t>pacheco</t>
         </is>
       </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3408,7 +4108,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3423,6 +4123,12 @@
         <is>
           <t>cardoso_me</t>
         </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -3450,6 +4156,12 @@
           <t>nogueira</t>
         </is>
       </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3476,6 +4188,12 @@
           <t>sá</t>
         </is>
       </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3486,7 +4204,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3501,6 +4219,12 @@
         <is>
           <t>santos_me</t>
         </is>
+      </c>
+      <c r="G120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -3524,6 +4248,12 @@
         <v>16609.02</v>
       </c>
       <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3550,6 +4280,12 @@
           <t>farias_ei</t>
         </is>
       </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3560,7 +4296,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3575,6 +4311,12 @@
         <is>
           <t>gonçalves</t>
         </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -3586,7 +4328,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3598,6 +4340,12 @@
         <v>15433.59</v>
       </c>
       <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3622,6 +4370,12 @@
           <t>da_cruz</t>
         </is>
       </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3648,6 +4402,12 @@
           <t>cardoso_me</t>
         </is>
       </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3674,6 +4434,12 @@
           <t>farias</t>
         </is>
       </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3700,6 +4466,12 @@
           <t>fonseca_s/a</t>
         </is>
       </c>
+      <c r="G128" t="n">
+        <v>4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3726,6 +4498,12 @@
           <t>moura_e_filhos</t>
         </is>
       </c>
+      <c r="G129" t="n">
+        <v>4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3752,6 +4530,12 @@
           <t>dias_s.a.</t>
         </is>
       </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3778,6 +4562,12 @@
           <t>ferreira_me</t>
         </is>
       </c>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3804,6 +4594,12 @@
           <t>costa</t>
         </is>
       </c>
+      <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3830,6 +4626,12 @@
           <t>cavalcanti</t>
         </is>
       </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3856,6 +4658,12 @@
           <t>ramos_s.a.</t>
         </is>
       </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3882,6 +4690,12 @@
           <t>pimenta_ei</t>
         </is>
       </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3904,6 +4718,12 @@
         <v>15776.4</v>
       </c>
       <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3930,6 +4750,12 @@
           <t>ferreira_e_filhos</t>
         </is>
       </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3956,6 +4782,12 @@
           <t>sá</t>
         </is>
       </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3982,6 +4814,12 @@
           <t>aragão</t>
         </is>
       </c>
+      <c r="G139" t="n">
+        <v>4</v>
+      </c>
+      <c r="H139" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4008,6 +4846,12 @@
           <t>montenegro_santos_s/a</t>
         </is>
       </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4032,6 +4876,12 @@
           <t>alves_e_filhos</t>
         </is>
       </c>
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4042,7 +4892,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4057,6 +4907,12 @@
         <is>
           <t>da_cunha</t>
         </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -4084,6 +4940,12 @@
           <t>viana_me</t>
         </is>
       </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4110,6 +4972,12 @@
           <t>farias</t>
         </is>
       </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4136,6 +5004,12 @@
           <t>barros_castro_me</t>
         </is>
       </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4162,6 +5036,12 @@
           <t>macedo_farias_e_filhos</t>
         </is>
       </c>
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4188,6 +5068,12 @@
           <t>nunes</t>
         </is>
       </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4214,6 +5100,12 @@
           <t>nogueira</t>
         </is>
       </c>
+      <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4240,6 +5132,12 @@
           <t>sales_ei</t>
         </is>
       </c>
+      <c r="G149" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4250,7 +5148,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4265,6 +5163,12 @@
         <is>
           <t>siqueira_brito_s/a</t>
         </is>
+      </c>
+      <c r="G150" t="n">
+        <v>3</v>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -4292,6 +5196,12 @@
           <t>da_cruz</t>
         </is>
       </c>
+      <c r="G151" t="n">
+        <v>4</v>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4318,6 +5228,12 @@
           <t>alves</t>
         </is>
       </c>
+      <c r="G152" t="n">
+        <v>3</v>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4344,6 +5260,12 @@
           <t>nogueira</t>
         </is>
       </c>
+      <c r="G153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4370,6 +5292,12 @@
           <t>sá</t>
         </is>
       </c>
+      <c r="G154" t="n">
+        <v>4</v>
+      </c>
+      <c r="H154" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4392,6 +5320,12 @@
         <v>4089.79</v>
       </c>
       <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4418,6 +5352,12 @@
           <t>pereira</t>
         </is>
       </c>
+      <c r="G156" t="n">
+        <v>4</v>
+      </c>
+      <c r="H156" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4444,6 +5384,12 @@
           <t>macedo_azevedo_ltda.</t>
         </is>
       </c>
+      <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4454,7 +5400,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4469,6 +5415,12 @@
         <is>
           <t>câmara</t>
         </is>
+      </c>
+      <c r="G158" t="n">
+        <v>3</v>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -4496,6 +5448,12 @@
           <t>rodrigues</t>
         </is>
       </c>
+      <c r="G159" t="n">
+        <v>3</v>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4522,6 +5480,12 @@
           <t>da_rocha_ltda.</t>
         </is>
       </c>
+      <c r="G160" t="n">
+        <v>3</v>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4548,6 +5512,12 @@
           <t>pastor</t>
         </is>
       </c>
+      <c r="G161" t="n">
+        <v>3</v>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4574,6 +5544,12 @@
           <t>santos_s/a</t>
         </is>
       </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4600,6 +5576,12 @@
           <t>moraes</t>
         </is>
       </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4626,6 +5608,12 @@
           <t>cardoso</t>
         </is>
       </c>
+      <c r="G164" t="n">
+        <v>3</v>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4652,6 +5640,12 @@
           <t>pimenta</t>
         </is>
       </c>
+      <c r="G165" t="n">
+        <v>3</v>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4662,7 +5656,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4677,6 +5671,12 @@
         <is>
           <t>nunes</t>
         </is>
+      </c>
+      <c r="G166" t="n">
+        <v>3</v>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="167">
@@ -4704,6 +5704,12 @@
           <t>gonçalves</t>
         </is>
       </c>
+      <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4730,6 +5736,12 @@
           <t>teixeira_costa_ei</t>
         </is>
       </c>
+      <c r="G168" t="n">
+        <v>3</v>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4752,6 +5764,12 @@
         <v>19831.62</v>
       </c>
       <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>4</v>
+      </c>
+      <c r="H169" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4778,6 +5796,12 @@
           <t>da_costa_s.a.</t>
         </is>
       </c>
+      <c r="G170" t="n">
+        <v>3</v>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4800,6 +5824,12 @@
         <v>18342.52</v>
       </c>
       <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4826,6 +5856,12 @@
           <t>costela</t>
         </is>
       </c>
+      <c r="G172" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4852,6 +5888,12 @@
           <t>ferreira_rezende_s/a</t>
         </is>
       </c>
+      <c r="G173" t="n">
+        <v>3</v>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4878,6 +5920,12 @@
           <t>câmara_e_filhos</t>
         </is>
       </c>
+      <c r="G174" t="n">
+        <v>4</v>
+      </c>
+      <c r="H174" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4904,6 +5952,12 @@
           <t>lopes_ei</t>
         </is>
       </c>
+      <c r="G175" t="n">
+        <v>3</v>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4930,6 +5984,12 @@
           <t>vargas_costa_s.a.</t>
         </is>
       </c>
+      <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4956,6 +6016,12 @@
           <t>cassiano_me</t>
         </is>
       </c>
+      <c r="G177" t="n">
+        <v>2</v>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4966,7 +6032,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4981,6 +6047,12 @@
         <is>
           <t>aragão</t>
         </is>
+      </c>
+      <c r="G178" t="n">
+        <v>2</v>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -5008,6 +6080,12 @@
           <t>azevedo_rocha_s/a</t>
         </is>
       </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5034,6 +6112,12 @@
           <t>casa_grande_fogaça_s/a</t>
         </is>
       </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5060,6 +6144,12 @@
           <t>barbosa_e_filhos</t>
         </is>
       </c>
+      <c r="G181" t="n">
+        <v>4</v>
+      </c>
+      <c r="H181" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5084,6 +6174,12 @@
           <t>almeida</t>
         </is>
       </c>
+      <c r="G182" t="n">
+        <v>4</v>
+      </c>
+      <c r="H182" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5110,6 +6206,12 @@
           <t>fonseca_s/a</t>
         </is>
       </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5136,6 +6238,12 @@
           <t>da_cunha</t>
         </is>
       </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5146,7 +6254,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5161,6 +6269,12 @@
         <is>
           <t>da_rocha_fogaça_s.a.</t>
         </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -5188,6 +6302,12 @@
           <t>cassiano</t>
         </is>
       </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5214,6 +6334,12 @@
           <t>nunes_garcia_ltda.</t>
         </is>
       </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5224,7 +6350,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5239,6 +6365,12 @@
         <is>
           <t>da_rocha_santos_ltda.</t>
         </is>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="189">
@@ -5266,6 +6398,12 @@
           <t>rezende_ltda.</t>
         </is>
       </c>
+      <c r="G189" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5292,6 +6430,12 @@
           <t>carvalho_câmara_e_filhos</t>
         </is>
       </c>
+      <c r="G190" t="n">
+        <v>2</v>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5318,6 +6462,12 @@
           <t>monteiro_novaes_s.a.</t>
         </is>
       </c>
+      <c r="G191" t="n">
+        <v>4</v>
+      </c>
+      <c r="H191" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5328,7 +6478,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5343,6 +6493,12 @@
         <is>
           <t>borges</t>
         </is>
+      </c>
+      <c r="G192" t="n">
+        <v>4</v>
+      </c>
+      <c r="H192" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="193">
@@ -5366,6 +6522,12 @@
         <v>14586.97</v>
       </c>
       <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>4</v>
+      </c>
+      <c r="H193" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5392,6 +6554,12 @@
           <t>garcia_ltda.</t>
         </is>
       </c>
+      <c r="G194" t="n">
+        <v>2</v>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5418,6 +6586,12 @@
           <t>martins_nascimento_me</t>
         </is>
       </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5444,6 +6618,12 @@
           <t>freitas_albuquerque_ei</t>
         </is>
       </c>
+      <c r="G196" t="n">
+        <v>3</v>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5470,6 +6650,12 @@
           <t>da_cunha_mendes_e_filhos</t>
         </is>
       </c>
+      <c r="G197" t="n">
+        <v>4</v>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5496,6 +6682,12 @@
           <t>pires_e_filhos</t>
         </is>
       </c>
+      <c r="G198" t="n">
+        <v>3</v>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5522,6 +6714,12 @@
           <t>nascimento</t>
         </is>
       </c>
+      <c r="G199" t="n">
+        <v>4</v>
+      </c>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5532,7 +6730,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>compra_matéria-prima</t>
+          <t>matéria-prima</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5547,6 +6745,12 @@
         <is>
           <t>da_costa</t>
         </is>
+      </c>
+      <c r="G200" t="n">
+        <v>3</v>
+      </c>
+      <c r="H200" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -5573,6 +6777,12 @@
         <is>
           <t>porto_me</t>
         </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
